--- a/data/03021.xlsx
+++ b/data/03021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4272,6 +4272,43 @@
         </is>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>03021</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03021.xlsx
+++ b/data/03021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4309,6 +4309,43 @@
         </is>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>03021</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03021.xlsx
+++ b/data/03021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4346,6 +4346,43 @@
         </is>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>03021</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03021.xlsx
+++ b/data/03021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,6 +4383,43 @@
         </is>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>03021</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03021.xlsx
+++ b/data/03021.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I110"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4420,6 +4420,43 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>03021</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
